--- a/server/src/main/java/net/guides/springboot2/crud/downloads/Stat Salarii - Smecherie SRL - Septembrie 2020.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/downloads/Stat Salarii - Smecherie SRL - Septembrie 2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t xml:space="preserve">, </t>
   </si>
@@ -239,6 +239,27 @@
   </si>
   <si>
     <t>- Septembrie 2020 -</t>
+  </si>
+  <si>
+    <t>72 22</t>
+  </si>
+  <si>
+    <t>Date Personaleeee</t>
+  </si>
+  <si>
+    <t>Negoiță Bogdan-Ionuț</t>
+  </si>
+  <si>
+    <t>plis work</t>
+  </si>
+  <si>
+    <t>Pop Alexandru</t>
+  </si>
+  <si>
+    <t>Popescu Ion</t>
+  </si>
+  <si>
+    <t>Tataie Tataitzul</t>
   </si>
 </sst>
 </file>
@@ -246,7 +267,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -275,6 +296,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="7.0"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -823,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -856,7 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,6 +906,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1201,7 +1236,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1245,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="false"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.28515625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="4.0" collapsed="false"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="4.28515625" collapsed="false"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="3.7109375" collapsed="false"/>
@@ -1230,49 +1265,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="L4" s="18" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="L4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="L5" s="19" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="L5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1343,21 +1378,21 @@
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1435,14 +1470,14 @@
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1494,10 +1529,10 @@
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1547,10 +1582,10 @@
       <c r="I13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="8" t="s">
         <v>51</v>
       </c>
@@ -1616,11 +1651,17 @@
       <c r="U14" s="13"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="E15" s="26" t="n">
+        <v>21213.0</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -1636,10 +1677,10 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="29"/>
+      <c r="U15" s="32"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1659,56 +1700,62 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
-      <c r="U16" s="30"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="31"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="34"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="34"/>
+      <c r="A18" s="35" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="26" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="37"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1728,56 +1775,62 @@
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
-      <c r="U19" s="30"/>
+      <c r="U19" s="33"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="31"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="34"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="34"/>
+      <c r="A21" s="35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="26" t="n">
+        <v>6154.0</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="37"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1797,59 +1850,65 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="30"/>
+      <c r="U22" s="33"/>
       <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="31"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="34"/>
       <c r="V23" s="7"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="34"/>
+      <c r="A24" s="35" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="26" t="n">
+        <v>2508.0</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="37"/>
       <c r="V24" s="7"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1869,57 +1928,63 @@
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="30"/>
+      <c r="U25" s="33"/>
       <c r="V25" s="7"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="31"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="34"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="34"/>
+      <c r="A27" s="35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="26" t="n">
+        <v>6154.0</v>
+      </c>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="37"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1939,56 +2004,62 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
-      <c r="U28" s="30"/>
+      <c r="U28" s="33"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="31"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="34"/>
     </row>
     <row r="30" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="34"/>
+      <c r="A30" s="35" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="26" t="n">
+        <v>1197.0</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="37"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2008,83 +2079,89 @@
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="30"/>
+      <c r="U31" s="33"/>
     </row>
     <row r="32">
-      <c r="A32" s="28"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="31"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="34"/>
     </row>
     <row r="33">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="34"/>
+      <c r="A33" s="35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="26" t="n">
+        <v>21000.0</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="37"/>
     </row>
     <row r="34">
-      <c r="A34" s="27"/>
-      <c r="U34" s="30"/>
+      <c r="A34" s="30"/>
+      <c r="U34" s="33"/>
     </row>
     <row r="35">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="31"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="21">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -2099,6 +2176,13 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/server/src/main/java/net/guides/springboot2/crud/downloads/Stat Salarii - Smecherie SRL - Septembrie 2020.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/downloads/Stat Salarii - Smecherie SRL - Septembrie 2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t xml:space="preserve">, </t>
   </si>
@@ -244,22 +244,82 @@
     <t>72 22</t>
   </si>
   <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>Date Personaleeee</t>
   </si>
   <si>
+    <t>Programator</t>
+  </si>
+  <si>
+    <t>1551201460044</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Negoiță Bogdan-Ionuț</t>
   </si>
   <si>
+    <t>Ajutor Programator</t>
+  </si>
+  <si>
+    <t>1981005460044</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>plis work</t>
   </si>
   <si>
+    <t>Economist</t>
+  </si>
+  <si>
+    <t>1690301460044</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
     <t>Pop Alexandru</t>
   </si>
   <si>
+    <t>Full Stack Developer</t>
+  </si>
+  <si>
+    <t>1991022431342</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>Popescu Ion</t>
   </si>
   <si>
+    <t>Paznic</t>
+  </si>
+  <si>
+    <t>1981005460043</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
     <t>Tataie Tataitzul</t>
+  </si>
+  <si>
+    <t>Bunic Smecher</t>
+  </si>
+  <si>
+    <t>1130313445826</t>
+  </si>
+  <si>
+    <t>x9</t>
   </si>
 </sst>
 </file>
@@ -330,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -469,6 +529,196 @@
     <border>
       <left style="thin"/>
       <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
@@ -514,7 +764,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
       </top>
       <bottom>
         <color indexed="8"/>
@@ -522,101 +772,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
+      <left/>
       <right/>
-      <top/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <right>
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin"/>
       <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left>
         <color indexed="8"/>
       </left>
       <right>
         <color indexed="8"/>
       </right>
-      <top>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom>
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -667,183 +874,6 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom>
@@ -855,66 +885,132 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -926,7 +1022,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -938,15 +1034,7 @@
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1233,933 +1321,913 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="3.7109375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.28515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.42578125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.7109375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="4.0" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="4.28515625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="3.7109375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="7.85546875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.0" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="6.7109375" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.85546875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="11.140625" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.0" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.140625" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="5.42578125" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.28515625" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.42578125" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="3.7109375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="14.28515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="29" width="13.42578125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="34" width="7.7109375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="34" width="11.140625" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="4.28515625" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="3.7109375" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.85546875" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.7109375" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="11.0" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="11.140625" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="7.140625" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="5.42578125" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="13.28515625" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="12.42578125" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="9.85546875" collapsed="false"/>
+    <col min="22" max="16384" style="13" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="L4" s="17" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="L4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:21" ht="13.2" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="L5" s="18" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="L5" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="13">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="29">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="34">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="34">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>8</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>9</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>10</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>11</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>12</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>13</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>14</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>15</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>16</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>17</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>18</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>19</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="9" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="9" t="s">
+      <c r="T9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="10">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8">
         <v>0.75</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8" t="s">
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U10" s="6"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="R11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="T11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="6"/>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="16" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8" t="s">
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="6"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="8" t="s">
+      <c r="K13" s="21"/>
+      <c r="L13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="R13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="S13" s="8" t="s">
+      <c r="S13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="8" t="s">
+      <c r="T13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="6"/>
+      <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="13"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="n">
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="47">
         <v>1.0</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" t="s" s="48">
         <v>75</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="26" t="n">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" t="n" s="48">
         <v>21213.0</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="32"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="33"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="34"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="n">
+      <c r="F15" t="n" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="49"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="43"/>
+      <c r="B16" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="45"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="44"/>
+      <c r="B17" s="42"/>
+      <c r="C17" t="s" s="42">
+        <v>77</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" t="n" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="46"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="47">
         <v>2.0</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="26" t="n">
+      <c r="B18" t="s" s="48">
+        <v>78</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" t="n" s="48">
         <v>5000.0</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="37"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="33"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="34"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="n">
+      <c r="F18" t="n" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="49"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="43"/>
+      <c r="B19" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" s="45"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="44"/>
+      <c r="B20" t="s" s="42">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s" s="42">
+        <v>81</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" t="n" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="46"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="47">
         <v>3.0</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="26" t="n">
+      <c r="B21" t="s" s="48">
+        <v>82</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" t="n" s="48">
         <v>6154.0</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="37"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="7"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="n">
+      <c r="F21" t="n" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="49"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="43"/>
+      <c r="B22" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="45"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="44"/>
+      <c r="B23" t="s" s="42">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s" s="42">
+        <v>85</v>
+      </c>
+      <c r="D23" s="42"/>
+      <c r="E23" t="n" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="46"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="47">
         <v>4.0</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="26" t="n">
+      <c r="B24" t="s" s="48">
+        <v>86</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" t="n" s="48">
         <v>2508.0</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="7"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="34"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="n">
+      <c r="F24" t="n" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" s="45"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="44"/>
+      <c r="B26" t="s" s="42">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s" s="42">
+        <v>89</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" t="n" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="46"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="47">
         <v>5.0</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="26" t="n">
+      <c r="B27" t="s" s="48">
+        <v>90</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" t="n" s="48">
         <v>6154.0</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="37"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="33"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="34"/>
-    </row>
-    <row r="30" spans="1:22" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="n">
+      <c r="F27" t="n" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="49"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="43"/>
+      <c r="B28" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="45"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="44"/>
+      <c r="B29" t="s" s="42">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s" s="42">
+        <v>93</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" t="n" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="46"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="47">
         <v>6.0</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="26" t="n">
+      <c r="B30" t="s" s="48">
+        <v>94</v>
+      </c>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" t="n" s="48">
         <v>1197.0</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="37"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="33"/>
+      <c r="F30" t="n" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="49"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="43"/>
+      <c r="B31" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="45"/>
     </row>
     <row r="32">
-      <c r="A32" s="31"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="34"/>
+      <c r="A32" s="44"/>
+      <c r="B32" t="s" s="42">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s" s="42">
+        <v>97</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" t="n" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="46"/>
     </row>
     <row r="33">
-      <c r="A33" s="35" t="n">
+      <c r="A33" t="n" s="47">
         <v>7.0</v>
       </c>
-      <c r="B33" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="26" t="n">
+      <c r="B33" t="s" s="48">
+        <v>98</v>
+      </c>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" t="n" s="48">
         <v>21000.0</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="37"/>
+      <c r="F33" t="n" s="48">
+        <v>8.0</v>
+      </c>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="49"/>
     </row>
     <row r="34">
-      <c r="A34" s="30"/>
-      <c r="U34" s="33"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" s="45"/>
     </row>
     <row r="35">
-      <c r="A35" s="31"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="34"/>
-    </row>
+      <c r="A35" s="44"/>
+      <c r="B35" t="s" s="42">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s" s="42">
+        <v>101</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" t="n" s="42">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="46"/>
+    </row>
+    <row r="51"/>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A1:C1"/>

--- a/server/src/main/java/net/guides/springboot2/crud/downloads/Stat Salarii - Smecherie SRL - Septembrie 2020.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/downloads/Stat Salarii - Smecherie SRL - Septembrie 2020.xlsx
@@ -885,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1005,11 +1005,20 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="right" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1031,6 +1040,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1321,7 +1334,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -1354,7 +1367,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="27"/>
@@ -1740,494 +1753,542 @@
       <c r="U14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="47">
+      <c r="A15" t="n" s="49">
         <v>1.0</v>
       </c>
-      <c r="B15" t="s" s="48">
+      <c r="B15" t="s" s="50">
         <v>75</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" t="n" s="48">
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51" t="n">
         <v>21213.0</v>
       </c>
-      <c r="F15" t="n" s="48">
+      <c r="F15" t="n" s="50">
         <v>8.0</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="49"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="52"/>
     </row>
     <row r="16">
-      <c r="A16" s="43"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="41" t="s">
         <v>76</v>
       </c>
       <c r="E16" t="n">
         <v>0.0</v>
       </c>
-      <c r="U16" s="45"/>
+      <c r="F16" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U16" s="47"/>
     </row>
     <row r="17">
-      <c r="A17" s="44"/>
-      <c r="B17" s="42"/>
-      <c r="C17" t="s" s="42">
+      <c r="A17" s="46"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" t="n" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="46"/>
+      <c r="D17" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="48"/>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="47">
+      <c r="A18" t="n" s="49">
         <v>2.0</v>
       </c>
-      <c r="B18" t="s" s="48">
+      <c r="B18" t="s" s="50">
         <v>78</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" t="n" s="48">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51" t="n">
         <v>5000.0</v>
       </c>
-      <c r="F18" t="n" s="48">
+      <c r="F18" t="n" s="50">
         <v>8.0</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="52"/>
     </row>
     <row r="19">
-      <c r="A19" s="43"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="41" t="s">
         <v>79</v>
       </c>
       <c r="E19" t="n">
         <v>0.0</v>
       </c>
-      <c r="U19" s="45"/>
+      <c r="F19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U19" s="47"/>
     </row>
     <row r="20">
-      <c r="A20" s="44"/>
-      <c r="B20" t="s" s="42">
+      <c r="A20" s="46"/>
+      <c r="B20" t="s" s="43">
         <v>80</v>
       </c>
-      <c r="C20" t="s" s="42">
+      <c r="C20" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" t="n" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="46"/>
+      <c r="D20" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="48"/>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="47">
+      <c r="A21" t="n" s="49">
         <v>3.0</v>
       </c>
-      <c r="B21" t="s" s="48">
+      <c r="B21" t="s" s="50">
         <v>82</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" t="n" s="48">
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51" t="n">
         <v>6154.0</v>
       </c>
-      <c r="F21" t="n" s="48">
+      <c r="F21" t="n" s="50">
         <v>8.0</v>
       </c>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="49"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="52"/>
     </row>
     <row r="22">
-      <c r="A22" s="43"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E22" t="n">
         <v>0.0</v>
       </c>
-      <c r="U22" s="45"/>
+      <c r="F22" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U22" s="47"/>
     </row>
     <row r="23">
-      <c r="A23" s="44"/>
-      <c r="B23" t="s" s="42">
+      <c r="A23" s="46"/>
+      <c r="B23" t="s" s="43">
         <v>84</v>
       </c>
-      <c r="C23" t="s" s="42">
+      <c r="C23" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" t="n" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="46"/>
+      <c r="D23" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="48"/>
     </row>
     <row r="24">
-      <c r="A24" t="n" s="47">
+      <c r="A24" t="n" s="49">
         <v>4.0</v>
       </c>
-      <c r="B24" t="s" s="48">
+      <c r="B24" t="s" s="50">
         <v>86</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" t="n" s="48">
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51" t="n">
         <v>2508.0</v>
       </c>
-      <c r="F24" t="n" s="48">
+      <c r="F24" t="n" s="50">
         <v>8.0</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="52"/>
     </row>
     <row r="25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="41" t="s">
         <v>87</v>
       </c>
       <c r="E25" t="n">
         <v>0.0</v>
       </c>
-      <c r="U25" s="45"/>
+      <c r="F25" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U25" s="47"/>
     </row>
     <row r="26">
-      <c r="A26" s="44"/>
-      <c r="B26" t="s" s="42">
+      <c r="A26" s="46"/>
+      <c r="B26" t="s" s="43">
         <v>88</v>
       </c>
-      <c r="C26" t="s" s="42">
+      <c r="C26" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" t="n" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="46"/>
+      <c r="D26" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="48"/>
     </row>
     <row r="27">
-      <c r="A27" t="n" s="47">
+      <c r="A27" t="n" s="49">
         <v>5.0</v>
       </c>
-      <c r="B27" t="s" s="48">
+      <c r="B27" t="s" s="50">
         <v>90</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" t="n" s="48">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51" t="n">
         <v>6154.0</v>
       </c>
-      <c r="F27" t="n" s="48">
+      <c r="F27" t="n" s="50">
         <v>8.0</v>
       </c>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="52"/>
     </row>
     <row r="28">
-      <c r="A28" s="43"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="41" t="s">
         <v>91</v>
       </c>
       <c r="E28" t="n">
         <v>0.0</v>
       </c>
-      <c r="U28" s="45"/>
+      <c r="F28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U28" s="47"/>
     </row>
     <row r="29">
-      <c r="A29" s="44"/>
-      <c r="B29" t="s" s="42">
+      <c r="A29" s="46"/>
+      <c r="B29" t="s" s="43">
         <v>92</v>
       </c>
-      <c r="C29" t="s" s="42">
+      <c r="C29" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" t="n" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="46"/>
+      <c r="D29" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="48"/>
     </row>
     <row r="30">
-      <c r="A30" t="n" s="47">
+      <c r="A30" t="n" s="49">
         <v>6.0</v>
       </c>
-      <c r="B30" t="s" s="48">
+      <c r="B30" t="s" s="50">
         <v>94</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" t="n" s="48">
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51" t="n">
         <v>1197.0</v>
       </c>
-      <c r="F30" t="n" s="48">
+      <c r="F30" t="n" s="50">
         <v>8.0</v>
       </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="52"/>
     </row>
     <row r="31">
-      <c r="A31" s="43"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="41" t="s">
         <v>95</v>
       </c>
       <c r="E31" t="n">
         <v>0.0</v>
       </c>
-      <c r="U31" s="45"/>
+      <c r="F31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U31" s="47"/>
     </row>
     <row r="32">
-      <c r="A32" s="44"/>
-      <c r="B32" t="s" s="42">
+      <c r="A32" s="46"/>
+      <c r="B32" t="s" s="43">
         <v>96</v>
       </c>
-      <c r="C32" t="s" s="42">
+      <c r="C32" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" t="n" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="46"/>
+      <c r="D32" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="48"/>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="47">
+      <c r="A33" t="n" s="49">
         <v>7.0</v>
       </c>
-      <c r="B33" t="s" s="48">
+      <c r="B33" t="s" s="50">
         <v>98</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" t="n" s="48">
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51" t="n">
         <v>21000.0</v>
       </c>
-      <c r="F33" t="n" s="48">
+      <c r="F33" t="n" s="50">
         <v>8.0</v>
       </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="49"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="52"/>
     </row>
     <row r="34">
-      <c r="A34" s="43"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="41" t="s">
         <v>99</v>
       </c>
       <c r="E34" t="n">
         <v>0.0</v>
       </c>
-      <c r="U34" s="45"/>
+      <c r="F34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U34" s="47"/>
     </row>
     <row r="35">
-      <c r="A35" s="44"/>
-      <c r="B35" t="s" s="42">
+      <c r="A35" s="46"/>
+      <c r="B35" t="s" s="43">
         <v>100</v>
       </c>
-      <c r="C35" t="s" s="42">
+      <c r="C35" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" t="n" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="46"/>
-    </row>
-    <row r="51"/>
+      <c r="D35" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="48"/>
+    </row>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A1:C1"/>

--- a/server/src/main/java/net/guides/springboot2/crud/downloads/Stat Salarii - Smecherie SRL - Septembrie 2020.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/downloads/Stat Salarii - Smecherie SRL - Septembrie 2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
   <si>
     <t xml:space="preserve">, </t>
   </si>
@@ -308,6 +308,18 @@
   </si>
   <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>Soare Camelia</t>
+  </si>
+  <si>
+    <t>Tehnician</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
   <si>
     <t>Tataie Tataitzul</t>
@@ -885,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1011,6 +1023,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1045,6 +1060,10 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -1334,7 +1353,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
@@ -1753,38 +1772,46 @@
       <c r="U14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="49">
+      <c r="A15" t="n" s="50">
         <v>1.0</v>
       </c>
-      <c r="B15" t="s" s="50">
+      <c r="B15" t="s" s="51">
         <v>75</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51" t="n">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52" t="n">
         <v>21213.0</v>
       </c>
-      <c r="F15" t="n" s="50">
+      <c r="F15" t="n" s="51">
         <v>8.0</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="52"/>
+      <c r="G15" s="53" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="K15" t="n" s="51">
+        <v>176.0</v>
+      </c>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="54"/>
     </row>
     <row r="16">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="41" t="s">
         <v>76</v>
       </c>
@@ -1794,72 +1821,101 @@
       <c r="F16" t="n">
         <v>8.0</v>
       </c>
-      <c r="U16" s="47"/>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="48"/>
     </row>
     <row r="17">
-      <c r="A17" s="46"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D17" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E17" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F17" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="48"/>
+      <c r="D17" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F17" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G17" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="49"/>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="49">
+      <c r="A18" t="n" s="50">
         <v>2.0</v>
       </c>
-      <c r="B18" t="s" s="50">
+      <c r="B18" t="s" s="51">
         <v>78</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51" t="n">
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52" t="n">
         <v>5000.0</v>
       </c>
-      <c r="F18" t="n" s="50">
+      <c r="F18" t="n" s="51">
         <v>8.0</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="52"/>
+      <c r="G18" s="53" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n" s="51">
+        <v>176.0</v>
+      </c>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="54"/>
     </row>
     <row r="19">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="41" t="s">
         <v>79</v>
       </c>
@@ -1869,74 +1925,103 @@
       <c r="F19" t="n">
         <v>8.0</v>
       </c>
-      <c r="U19" s="47"/>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U19" s="48"/>
     </row>
     <row r="20">
-      <c r="A20" s="46"/>
-      <c r="B20" t="s" s="43">
+      <c r="A20" s="47"/>
+      <c r="B20" t="s" s="44">
         <v>80</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D20" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E20" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F20" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="48"/>
+      <c r="D20" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E20" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F20" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G20" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="49"/>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="49">
+      <c r="A21" t="n" s="50">
         <v>3.0</v>
       </c>
-      <c r="B21" t="s" s="50">
+      <c r="B21" t="s" s="51">
         <v>82</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51" t="n">
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52" t="n">
         <v>6154.0</v>
       </c>
-      <c r="F21" t="n" s="50">
+      <c r="F21" t="n" s="51">
         <v>8.0</v>
       </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="52"/>
+      <c r="G21" s="53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="K21" t="n" s="51">
+        <v>160.0</v>
+      </c>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="54"/>
     </row>
     <row r="22">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="41" t="s">
         <v>83</v>
       </c>
@@ -1946,74 +2031,103 @@
       <c r="F22" t="n">
         <v>8.0</v>
       </c>
-      <c r="U22" s="47"/>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U22" s="48"/>
     </row>
     <row r="23">
-      <c r="A23" s="46"/>
-      <c r="B23" t="s" s="43">
+      <c r="A23" s="47"/>
+      <c r="B23" t="s" s="44">
         <v>84</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F23" t="n" s="43">
+      <c r="D23" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F23" t="n" s="44">
         <v>2.0</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="48"/>
+      <c r="G23" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="49"/>
     </row>
     <row r="24">
-      <c r="A24" t="n" s="49">
+      <c r="A24" t="n" s="50">
         <v>4.0</v>
       </c>
-      <c r="B24" t="s" s="50">
+      <c r="B24" t="s" s="51">
         <v>86</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51" t="n">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52" t="n">
         <v>2508.0</v>
       </c>
-      <c r="F24" t="n" s="50">
+      <c r="F24" t="n" s="51">
         <v>8.0</v>
       </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="52"/>
+      <c r="G24" s="53" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="K24" t="n" s="51">
+        <v>176.0</v>
+      </c>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="54"/>
     </row>
     <row r="25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="41" t="s">
         <v>87</v>
       </c>
@@ -2023,74 +2137,103 @@
       <c r="F25" t="n">
         <v>8.0</v>
       </c>
-      <c r="U25" s="47"/>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U25" s="48"/>
     </row>
     <row r="26">
-      <c r="A26" s="46"/>
-      <c r="B26" t="s" s="43">
+      <c r="A26" s="47"/>
+      <c r="B26" t="s" s="44">
         <v>88</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E26" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F26" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="48"/>
+      <c r="D26" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F26" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G26" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="I26" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="49"/>
     </row>
     <row r="27">
-      <c r="A27" t="n" s="49">
+      <c r="A27" t="n" s="50">
         <v>5.0</v>
       </c>
-      <c r="B27" t="s" s="50">
+      <c r="B27" t="s" s="51">
         <v>90</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51" t="n">
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52" t="n">
         <v>6154.0</v>
       </c>
-      <c r="F27" t="n" s="50">
+      <c r="F27" t="n" s="51">
         <v>8.0</v>
       </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="52"/>
+      <c r="G27" s="53" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H27" s="51"/>
+      <c r="I27" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="K27" t="n" s="51">
+        <v>176.0</v>
+      </c>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="54"/>
     </row>
     <row r="28">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="41" t="s">
         <v>91</v>
       </c>
@@ -2100,74 +2243,103 @@
       <c r="F28" t="n">
         <v>8.0</v>
       </c>
-      <c r="U28" s="47"/>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U28" s="48"/>
     </row>
     <row r="29">
-      <c r="A29" s="46"/>
-      <c r="B29" t="s" s="43">
+      <c r="A29" s="47"/>
+      <c r="B29" t="s" s="44">
         <v>92</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D29" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F29" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="48"/>
+      <c r="D29" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E29" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F29" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G29" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="49"/>
     </row>
     <row r="30">
-      <c r="A30" t="n" s="49">
+      <c r="A30" t="n" s="50">
         <v>6.0</v>
       </c>
-      <c r="B30" t="s" s="50">
+      <c r="B30" t="s" s="51">
         <v>94</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51" t="n">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52" t="n">
         <v>1197.0</v>
       </c>
-      <c r="F30" t="n" s="50">
+      <c r="F30" t="n" s="51">
         <v>8.0</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="52"/>
+      <c r="G30" s="53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H30" s="51"/>
+      <c r="I30" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J30" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="K30" t="n" s="51">
+        <v>40.0</v>
+      </c>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="54"/>
     </row>
     <row r="31">
-      <c r="A31" s="45"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="41" t="s">
         <v>95</v>
       </c>
@@ -2177,74 +2349,103 @@
       <c r="F31" t="n">
         <v>2.0</v>
       </c>
-      <c r="U31" s="47"/>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U31" s="48"/>
     </row>
     <row r="32">
-      <c r="A32" s="46"/>
-      <c r="B32" t="s" s="43">
+      <c r="A32" s="47"/>
+      <c r="B32" t="s" s="44">
         <v>96</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E32" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F32" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="48"/>
+      <c r="D32" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E32" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F32" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G32" t="n" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="H32" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="49"/>
     </row>
     <row r="33">
-      <c r="A33" t="n" s="49">
+      <c r="A33" t="n" s="50">
         <v>7.0</v>
       </c>
-      <c r="B33" t="s" s="50">
+      <c r="B33" t="s" s="51">
         <v>98</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="51" t="n">
-        <v>21000.0</v>
-      </c>
-      <c r="F33" t="n" s="50">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52" t="n">
+        <v>5454.0</v>
+      </c>
+      <c r="F33" t="n" s="51">
         <v>8.0</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="52"/>
+      <c r="G33" s="53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H33" s="51"/>
+      <c r="I33" t="n" s="51">
+        <v>2.0</v>
+      </c>
+      <c r="J33" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="K33" t="n" s="51">
+        <v>160.0</v>
+      </c>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="54"/>
     </row>
     <row r="34">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="41" t="s">
         <v>99</v>
       </c>
@@ -2252,45 +2453,172 @@
         <v>0.0</v>
       </c>
       <c r="F34" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U34" s="48"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="47"/>
+      <c r="B35" t="s" s="44">
+        <v>100</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E35" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="I35" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="49"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="50">
+        <v>8.0</v>
+      </c>
+      <c r="B36" t="s" s="51">
+        <v>102</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52" t="n">
+        <v>21000.0</v>
+      </c>
+      <c r="F36" t="n" s="51">
+        <v>8.0</v>
+      </c>
+      <c r="G36" s="53" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="H36" s="51"/>
+      <c r="I36" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n" s="51">
+        <v>0.0</v>
+      </c>
+      <c r="K36" t="n" s="51">
+        <v>19.0</v>
+      </c>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="54"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="46"/>
+      <c r="B37" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.0</v>
       </c>
-      <c r="U34" s="47"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="46"/>
-      <c r="B35" t="s" s="43">
-        <v>100</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="E35" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="F35" t="n" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="48"/>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U37" s="48"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="47"/>
+      <c r="B38" t="s" s="44">
+        <v>104</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="n" s="44">
+        <v>4.0</v>
+      </c>
+      <c r="I38" t="n" s="44">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="30">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -2306,12 +2634,21 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
